--- a/Champion_Pool.xlsx
+++ b/Champion_Pool.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriu\Documents\Python_Scripts\League_Comps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA8A66F-A01E-4AFB-9F77-F98CE3639893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FE7FB1-35E7-4E53-9F6B-D0E091A0DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11175" xr2:uid="{C25219B9-EACD-426B-B354-A283D7DF6FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$162</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -977,8 +980,8 @@
   <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A163" sqref="A163:XFD163"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1460,7 @@
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>1</v>
       </c>
     </row>
@@ -2286,6 +2289,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D162" xr:uid="{A3FBD6AB-AB95-4F21-926E-B0210AFE6D4C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Champion_Pool.xlsx
+++ b/Champion_Pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriu\Documents\Python_Scripts\League_Comps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FE7FB1-35E7-4E53-9F6B-D0E091A0DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B72892-F4AD-4DEF-9059-B663EFF0475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11175" xr2:uid="{C25219B9-EACD-426B-B354-A283D7DF6FCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C25219B9-EACD-426B-B354-A283D7DF6FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Aatrox</t>
   </si>
@@ -534,6 +534,21 @@
   </si>
   <si>
     <t>Campeon</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>SUPPORT</t>
+  </si>
+  <si>
+    <t>FIGHTER</t>
+  </si>
+  <si>
+    <t>TANK</t>
+  </si>
+  <si>
+    <t>MAGE</t>
   </si>
 </sst>
 </file>
@@ -977,16 +992,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FBD6AB-AB95-4F21-926E-B0210AFE6D4C}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -999,1292 +1014,1790 @@
       <c r="D1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>153</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="F162">
         <v>1</v>
       </c>
     </row>

--- a/Champion_Pool.xlsx
+++ b/Champion_Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriu\Documents\Python_Scripts\League_Comps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B72892-F4AD-4DEF-9059-B663EFF0475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F046C369-3966-4E2A-BB5C-C846E360D428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C25219B9-EACD-426B-B354-A283D7DF6FCA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="170">
   <si>
     <t>Aatrox</t>
   </si>
@@ -524,15 +524,6 @@
     <t>Nilah</t>
   </si>
   <si>
-    <t>Tanke</t>
-  </si>
-  <si>
-    <t>Ap</t>
-  </si>
-  <si>
-    <t>Ad</t>
-  </si>
-  <si>
     <t>Campeon</t>
   </si>
   <si>
@@ -549,6 +540,15 @@
   </si>
   <si>
     <t>MAGE</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>TANKE</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +598,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -678,6 +696,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,78 +1013,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FBD6AB-AB95-4F21-926E-B0210AFE6D4C}">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E165" sqref="E165"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="M1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1073,85 +1115,109 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1227,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1172,316 +1241,403 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1491,8 +1647,11 @@
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1502,85 +1661,109 @@
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1590,140 +1773,179 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -1733,30 +1955,39 @@
       <c r="E65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1766,96 +1997,123 @@
       <c r="E68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -1865,19 +2123,25 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -1887,41 +2151,53 @@
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -1931,96 +2207,123 @@
       <c r="H83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -2030,195 +2333,249 @@
       <c r="E92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -2228,8 +2585,11 @@
       <c r="E110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -2239,74 +2599,95 @@
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -2316,19 +2697,25 @@
       <c r="E118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -2338,250 +2725,319 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>141</v>
       </c>
@@ -2591,41 +3047,53 @@
       <c r="E143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
-      <c r="H145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -2635,63 +3103,81 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>151</v>
       </c>
@@ -2701,8 +3187,11 @@
       <c r="E153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>152</v>
       </c>
@@ -2712,63 +3201,81 @@
       <c r="E154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>153</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>157</v>
       </c>
@@ -2778,26 +3285,35 @@
       <c r="E160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
-      <c r="F162">
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="J162">
         <v>1</v>
       </c>
     </row>

--- a/Champion_Pool.xlsx
+++ b/Champion_Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriu\Documents\Python_Scripts\League_Comps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F046C369-3966-4E2A-BB5C-C846E360D428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F6215-030F-4191-901B-616358484DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C25219B9-EACD-426B-B354-A283D7DF6FCA}"/>
   </bookViews>
@@ -1016,8 +1016,8 @@
   <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
